--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D1E8751-DC5C-466D-8100-18423C8C027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01B500-E61F-40C6-98AD-69F022448AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1920" windowWidth="13500" windowHeight="11535" xr2:uid="{D5B44FB1-5EA7-4FEE-A57A-9662E7BC2A6A}"/>
+    <workbookView xWindow="28680" yWindow="-4170" windowWidth="18240" windowHeight="29040" xr2:uid="{D5B44FB1-5EA7-4FEE-A57A-9662E7BC2A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>Paper_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,7 +555,7 @@
         <v>46</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -600,9 +600,6 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -715,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08BF671-F9E3-473F-BA52-A6B90C6146D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6F4F12-7CDB-450E-B4FB-6052533CA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -73,36 +73,24 @@
     <t>Friend</t>
   </si>
   <si>
-    <t>Hu</t>
-  </si>
-  <si>
     <t>P6E1</t>
   </si>
   <si>
     <t>Partner</t>
   </si>
   <si>
-    <t>Constable and Knoblich</t>
-  </si>
-  <si>
     <t>P46E2</t>
   </si>
   <si>
     <t>drop 1</t>
   </si>
   <si>
-    <t>Constable</t>
-  </si>
-  <si>
     <t>!4</t>
   </si>
   <si>
     <t>P51E1</t>
   </si>
   <si>
-    <t>Qian</t>
-  </si>
-  <si>
     <t>P51E2</t>
   </si>
   <si>
@@ -121,15 +109,9 @@
     <t>Pn4E1</t>
   </si>
   <si>
-    <t>Golubickis and Macrae</t>
-  </si>
-  <si>
     <t>Pn13E1</t>
   </si>
   <si>
-    <t>Navon and Makovski</t>
-  </si>
-  <si>
     <t>Pn13E3</t>
   </si>
   <si>
@@ -142,9 +124,6 @@
     <t>Pn16E1</t>
   </si>
   <si>
-    <t>Svensson</t>
-  </si>
-  <si>
     <t>Pn16E2</t>
   </si>
   <si>
@@ -154,9 +133,6 @@
     <t>Pn23E1</t>
   </si>
   <si>
-    <t>Xu</t>
-  </si>
-  <si>
     <t>P95E1</t>
   </si>
   <si>
@@ -169,13 +145,48 @@
     <t>drop 24</t>
   </si>
   <si>
-    <t>Liu</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Schäfer and Frings</t>
+    <t>Hu et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constable &amp; Knoblich</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constable et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qian et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schäfer &amp; Frings</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golubickis &amp; Macrae</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navon &amp; Makovski</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Svensson et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woźniak et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1138,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1234,7 @@
         <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N2" s="1">
         <v>2023</v>
@@ -1237,16 +1248,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1264,7 +1275,7 @@
         <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N3" s="1">
         <v>2020</v>
@@ -1278,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1299,13 +1310,13 @@
         <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
         <v>55</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N4" s="1">
         <v>2021</v>
@@ -1316,10 +1327,10 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1346,7 +1357,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N5" s="1">
         <v>2020</v>
@@ -1360,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1385,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N6" s="1">
         <v>2020</v>
@@ -1399,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1408,12 +1419,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>32</v>
@@ -1422,13 +1433,13 @@
         <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1">
         <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N7" s="1">
         <v>2019</v>
@@ -1442,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1451,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1463,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" s="1">
         <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N8" s="1">
         <v>2019</v>
@@ -1483,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1506,13 +1517,13 @@
         <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1">
         <v>29</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1">
         <v>2021</v>
@@ -1526,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1553,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N10" s="1">
         <v>2021</v>
@@ -1567,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1576,7 +1587,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
@@ -1594,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N11" s="1">
         <v>2021</v>
@@ -1608,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -1635,7 +1646,7 @@
         <v>27</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N12" s="1">
         <v>2021</v>
@@ -1649,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1674,7 +1685,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N13" s="1">
         <v>2022</v>
@@ -1688,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1713,7 +1724,7 @@
         <v>24</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N14" s="1">
         <v>2022</v>
@@ -1727,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1752,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N15" s="1">
         <v>2022</v>
@@ -1766,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1793,7 +1804,7 @@
         <v>105</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N16" s="1">
         <v>2021</v>
@@ -1807,7 +1818,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1848,7 +1859,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1889,7 +1900,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1910,13 +1921,13 @@
         <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L19" s="1">
         <v>274</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N19" s="1">
         <v>2023</v>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -1,36 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6F4F12-7CDB-450E-B4FB-6052533CA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410B2101-CF4D-4005-9120-858A8D7D8D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
-  <si>
-    <t>DataFrame_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
   <si>
     <t>Paper_ID</t>
   </si>
   <si>
-    <t>Exp_ID</t>
-  </si>
-  <si>
     <t>Self</t>
   </si>
   <si>
@@ -52,9 +59,6 @@
     <t>Trials</t>
   </si>
   <si>
-    <t>Drop</t>
-  </si>
-  <si>
     <t>Remain</t>
   </si>
   <si>
@@ -82,12 +86,6 @@
     <t>P46E2</t>
   </si>
   <si>
-    <t>drop 1</t>
-  </si>
-  <si>
-    <t>!4</t>
-  </si>
-  <si>
     <t>P51E1</t>
   </si>
   <si>
@@ -142,9 +140,6 @@
     <t>Ps1E1</t>
   </si>
   <si>
-    <t>drop 24</t>
-  </si>
-  <si>
     <t>Hu et al.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -186,6 +181,424 @@
   </si>
   <si>
     <t>Liu et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps2E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps3E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sui (unpublished)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps4E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps4E2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps5E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps5E2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps5E3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ps5E4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sui et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop_ACC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop_Exp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt1E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Haciahmet et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt2E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hobbs et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moral</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1:1:1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1:3:3)</t>
+  </si>
+  <si>
+    <t>(3:1:3)</t>
+  </si>
+  <si>
+    <t>(3:3:1)</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt3E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liang et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt4E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schäfer et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt6E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra_Var</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>symmetry: (symmetry; asymmetry)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vicovaro et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch Identity: (Partner, Stranger)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Emotion: (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Neutral, Happay, Sad)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 (non-switch)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; 2 (switched)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cue: (With; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Presentation: (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Blocked)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency (Self &gt; Friend)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency (Self &lt; Friend)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tasks: (Modified; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unmodified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facial Gender: (Male, Female)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral: </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency (Self = 1; Friend = 1; Stranger = 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency (Self = 1; Friend = 3; Stranger = 3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency (Self = 3; Friend = 1; Stranger = 3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency (Self = 3; Friend = 3; Stranger = 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TMS (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Post)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stimulus: (Negative; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neutral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 (before TMS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2 (after TMS)</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +772,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -785,11 +1222,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,9 +1297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -891,7 +1337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -997,7 +1443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1139,7 +1585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1147,793 +1593,1499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="15" max="15" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <f>J2-L2-M2</f>
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N33" si="0">J3-L3-M3</f>
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2023</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1">
+        <v>48</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>46</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>56</v>
-      </c>
-      <c r="J4" s="1">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1">
-        <v>55</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>24</v>
-      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1">
         <v>24</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
         <v>24</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1">
         <v>2020</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>25</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>25</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
         <v>25</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1">
         <v>2020</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="1">
-        <v>31</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
         <v>35</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>24</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="1">
-        <v>34</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>45</v>
+      <c r="M8" s="1">
+        <v>2</v>
       </c>
       <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="1">
         <v>2019</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1">
         <v>30</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="K9" s="1">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="1">
         <v>2021</v>
       </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1">
+        <v>60</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1">
+        <v>60</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1">
         <v>60</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2021</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1">
-        <v>60</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>28</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2021</v>
-      </c>
-      <c r="O11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1">
-        <v>60</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2021</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
         <v>20</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>50</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="1">
         <v>2022</v>
       </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
         <v>24</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>100</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="1">
         <v>2022</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="R14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
         <v>25</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>100</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>105</v>
+      </c>
+      <c r="K16" s="1">
+        <v>60</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1">
+        <v>56</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1">
+        <v>60</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>298</v>
+      </c>
+      <c r="K19" s="1">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1">
+        <v>18</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>23</v>
+      </c>
+      <c r="K20" s="1">
+        <v>90</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1">
+        <v>40</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1">
+        <v>40</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2015</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1">
+        <v>40</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2015</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1">
+        <v>60</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1">
+        <v>60</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>22</v>
+      </c>
+      <c r="K26" s="1">
+        <v>60</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>20</v>
+      </c>
+      <c r="K27" s="1">
+        <v>60</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>40</v>
+      </c>
+      <c r="K28" s="1">
+        <v>60</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>144</v>
+      </c>
+      <c r="K29" s="1">
+        <v>20</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>109</v>
+      </c>
+      <c r="K30" s="1">
+        <v>60</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>100</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>35</v>
+      </c>
+      <c r="K31" s="1">
+        <v>24</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1">
+        <v>60</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2022</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1">
         <v>48</v>
       </c>
-      <c r="N15" s="1">
+      <c r="K33" s="1">
+        <v>60</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="1">
         <v>2022</v>
       </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
-        <v>105</v>
-      </c>
-      <c r="J16" s="1">
-        <v>60</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
-        <v>105</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2021</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1">
-        <v>56</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
-        <v>18</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="Q33">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1">
-        <v>60</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <v>18</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2018</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
-        <v>298</v>
-      </c>
-      <c r="J19" s="1">
-        <v>16</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="1">
-        <v>274</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2023</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
+      <c r="R33" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410B2101-CF4D-4005-9120-858A8D7D8D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979286B-5E07-4470-9133-633549CA620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -301,14 +301,6 @@
   </si>
   <si>
     <t>Liang et al.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pt4E1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schäfer et al.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -543,35 +535,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>; Post)</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stimulus: (Negative; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Neutral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1593,12 +1556,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="S4" sqref="S4"/>
+      <selection pane="topRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1671,10 +1634,10 @@
         <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1722,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1758,7 +1721,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N33" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N32" si="0">J3-L3-M3</f>
         <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1771,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1864,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1907,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2040,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2249,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2294,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2339,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2387,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2435,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2526,7 +2489,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2692,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2738,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2784,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2830,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="R27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2954,10 +2917,10 @@
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2973,33 +2936,34 @@
       <c r="E31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J31" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K31" s="1">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P31" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -3007,10 +2971,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>1</v>
@@ -3020,72 +2984,29 @@
         <v>4</v>
       </c>
       <c r="J32" s="1">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K32" s="1">
         <v>60</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P32" s="1">
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="1">
-        <v>48</v>
-      </c>
-      <c r="K33" s="1">
-        <v>60</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="O33" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="1">
-        <v>2022</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-      <c r="R33" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979286B-5E07-4470-9133-633549CA620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4925A613-14B3-495E-AB13-9BEF597C0EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -564,12 +564,88 @@
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Pt6E2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt9E2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt9E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt9E3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Wo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ź</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>niak &amp; Knoblich</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pseudo-words Association: (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Post)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +834,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1556,12 +1639,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C33" sqref="C33"/>
+      <selection pane="topRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1721,7 +1804,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N32" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N35" si="0">J3-L3-M3</f>
         <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2971,7 +3054,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -3007,6 +3090,132 @@
       </c>
       <c r="R32" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="1">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1">
+        <v>60</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2022</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="1">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1">
+        <v>60</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2022</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="1">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1">
+        <v>60</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
+        <v>105</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2022</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4925A613-14B3-495E-AB13-9BEF597C0EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0B61DF-D21D-43D2-BDBA-1D38A1F7AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="126">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -309,10 +309,6 @@
   </si>
   <si>
     <t>Extra_Var</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>symmetry: (symmetry; asymmetry)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -638,6 +634,136 @@
       </rPr>
       <t>; Post)</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt10E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt18E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matching : Nonmatching = 3 : 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t18 = t16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M : NM = 3 : 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P19E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bukowski et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P19E2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group: (imitation;  imitation-inhibition; control-inhibition)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group: (imitation;  imitation-inhibition; control-inhibition; be-imitated)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P34E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kolvoort et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Delay: (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 40ms, 120ms, 700ms)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>P44E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martínez-Pérez et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stimulation: (cathodal-VMPFC; anodal-VMPFC; cathodal-DLPFC; anodal-DLPFC; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sham</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symmetry: (symmetry; asymmetry)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt27E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M : NM =1 : 2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1639,17 +1765,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="R35" sqref="R35"/>
+      <selection pane="topRight" activeCell="I39" sqref="I39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.625" bestFit="1" customWidth="1"/>
@@ -1660,8 +1786,8 @@
     <col min="12" max="12" width="8.75" customWidth="1"/>
     <col min="13" max="13" width="9.375" customWidth="1"/>
     <col min="15" max="15" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29" customWidth="1"/>
+    <col min="18" max="18" width="78.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1720,7 +1846,7 @@
         <v>78</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1768,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1804,7 +1930,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N35" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N42" si="0">J3-L3-M3</f>
         <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1817,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1910,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -1953,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2086,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2295,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2340,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2385,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2433,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2481,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2572,7 +2698,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2738,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2784,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2830,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -2876,7 +3002,7 @@
         <v>4</v>
       </c>
       <c r="R27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -3000,10 +3126,10 @@
         <v>1</v>
       </c>
       <c r="R30" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -3037,7 +3163,7 @@
         <v>27</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P31" s="1">
         <v>2022</v>
@@ -3046,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
@@ -3054,7 +3180,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -3080,7 +3206,7 @@
         <v>46</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P32" s="1">
         <v>2022</v>
@@ -3089,15 +3215,15 @@
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -3109,7 +3235,7 @@
         <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J33" s="1">
         <v>18</v>
@@ -3122,7 +3248,7 @@
         <v>18</v>
       </c>
       <c r="O33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P33" s="1">
         <v>2022</v>
@@ -3131,15 +3257,15 @@
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -3151,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J34" s="1">
         <v>18</v>
@@ -3164,7 +3290,7 @@
         <v>18</v>
       </c>
       <c r="O34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P34" s="1">
         <v>2022</v>
@@ -3173,15 +3299,15 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -3193,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J35" s="1">
         <v>18</v>
@@ -3206,7 +3332,7 @@
         <v>18</v>
       </c>
       <c r="O35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P35" s="1">
         <v>2022</v>
@@ -3215,7 +3341,313 @@
         <v>3</v>
       </c>
       <c r="R35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>341</v>
+      </c>
+      <c r="K36" s="1">
+        <v>36</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>20</v>
+      </c>
+      <c r="K37" s="1">
+        <v>160</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1">
+        <v>87</v>
+      </c>
+      <c r="K38" s="1">
+        <v>60</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="O38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1">
+        <v>95</v>
+      </c>
+      <c r="K39" s="1">
+        <v>60</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="O39" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <v>31</v>
+      </c>
+      <c r="K40" s="1">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P40" s="1">
+        <v>2020</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>15</v>
+      </c>
+      <c r="K41" s="1">
+        <v>40</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" s="1">
+        <v>2020</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1">
+        <v>40</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2024</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0B61DF-D21D-43D2-BDBA-1D38A1F7AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE48E9C1-BAA7-4CD3-A614-BEC296EE49FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1770,7 +1770,7 @@
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="I39" sqref="I39:I40"/>
+      <selection pane="topRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3451,17 +3451,17 @@
         <v>4</v>
       </c>
       <c r="J38" s="1">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1">
         <v>60</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="O38" t="s">
         <v>113</v>
@@ -3496,7 +3496,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="1">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="K39" s="1">
         <v>60</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="O39" t="s">
         <v>113</v>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE48E9C1-BAA7-4CD3-A614-BEC296EE49FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE99DC-314A-4B33-92DE-5F06972A2A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -764,6 +764,34 @@
   </si>
   <si>
     <t>M : NM =1 : 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt13E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt13E2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feldborg et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditon: (Self, Friend)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditon: (Self, Stranger)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1765,12 +1793,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="M39" sqref="M39"/>
+      <selection pane="topRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1958,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N42" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N44" si="0">J3-L3-M3</f>
         <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3648,6 +3676,90 @@
       </c>
       <c r="Q42">
         <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="1">
+        <v>53</v>
+      </c>
+      <c r="K43" s="1">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="O43" t="s">
+        <v>130</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>128</v>
+      </c>
+      <c r="R43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1">
+        <v>49</v>
+      </c>
+      <c r="K44" s="1">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" s="1">
+        <v>2021</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>129</v>
+      </c>
+      <c r="R44" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE99DC-314A-4B33-92DE-5F06972A2A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E60CE3-3734-49A1-96F9-3AC5BBE25AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -792,6 +792,43 @@
   </si>
   <si>
     <t>Conditon: (Self, Stranger)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt28E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amodeo et al.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ASD: (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; ASD)</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1793,12 +1830,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="D43" sqref="D43"/>
+      <selection pane="topRight" activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1958,7 +1995,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N44" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N45" si="0">J3-L3-M3</f>
         <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3760,6 +3797,48 @@
       </c>
       <c r="R44" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1">
+        <v>30</v>
+      </c>
+      <c r="K45" s="1">
+        <v>60</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2024</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E60CE3-3734-49A1-96F9-3AC5BBE25AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81405026-F811-4D4B-8596-EED6734E8A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="137">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -829,6 +829,10 @@
       </rPr>
       <t>; ASD)</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>not yet</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1832,10 +1836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="R46" sqref="R46"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3635,6 +3639,9 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
       <c r="B41">
         <v>40</v>
       </c>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81405026-F811-4D4B-8596-EED6734E8A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFD1021-D84B-4FCE-923D-713BFB8CFB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,7 +840,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,8 +1037,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,6 +1224,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1463,7 +1475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1473,10 +1485,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1834,12 +1855,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1943,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1">
@@ -1965,7 +1986,7 @@
       <c r="R2" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2060,51 +2081,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
         <v>24</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <v>24</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="5">
         <v>2020</v>
       </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2686,7 +2707,7 @@
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1">
@@ -2724,49 +2745,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5">
         <v>23</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="5">
         <v>90</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="5">
         <v>3</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="5">
         <v>2023</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2774,7 +2795,7 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="1">
@@ -2814,7 +2835,7 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="1">
@@ -2854,7 +2875,7 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="1">
@@ -3638,48 +3659,48 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="H41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="5">
         <v>15</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="5">
         <v>40</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="5">
         <v>2020</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3847,6 +3868,9 @@
       <c r="R45" t="s">
         <v>135</v>
       </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="N46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFD1021-D84B-4FCE-923D-713BFB8CFB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EB41D-0ED3-4BA3-9307-8A53E7260A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="139">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -833,6 +833,14 @@
   </si>
   <si>
     <t>not yet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt7E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perrykkad &amp; Hohwy</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1857,10 +1865,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2020,7 +2028,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N45" si="0">J3-L3-M3</f>
+        <f t="shared" ref="N3:N46" si="0">J3-L3-M3</f>
         <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3870,7 +3878,46 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="N46" s="1"/>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1">
+        <v>334</v>
+      </c>
+      <c r="K46" s="1">
+        <v>60</v>
+      </c>
+      <c r="M46">
+        <v>48</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="O46" t="s">
+        <v>138</v>
+      </c>
+      <c r="P46" s="1">
+        <v>2022</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/5_Analysis/Label.xlsx
+++ b/5_Analysis/Label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Reliability_SPMT\5_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EB41D-0ED3-4BA3-9307-8A53E7260A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF835EE-12C0-49A9-A30F-E4E08E67AE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="141">
   <si>
     <t>Paper_ID</t>
   </si>
@@ -841,6 +841,14 @@
   </si>
   <si>
     <t>Perrykkad &amp; Hohwy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pu1E1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1060,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,6 +1246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1483,7 +1497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,6 +1520,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1863,12 +1880,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="R47" sqref="R47"/>
+      <selection pane="topRight" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3919,6 +3936,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="8">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1">
+        <v>42</v>
+      </c>
+      <c r="K47" s="1">
+        <v>36</v>
+      </c>
+      <c r="O47" t="s">
+        <v>140</v>
+      </c>
+      <c r="P47" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
